--- a/templates/community/RPTU/RPTU_FS_ProteinExtraction.xlsx
+++ b/templates/community/RPTU/RPTU_FS_ProteinExtraction.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Desktop\RPTU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\community\RPTU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E03F8C-C2CC-44AC-91E4-DE5A41DC966C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AFDED1F-B783-4F92-AC82-BE607E23362D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{53E4735C-14F8-482F-9DAC-5F38B5221EAD}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{53E4735C-14F8-482F-9DAC-5F38B5221EAD}"/>
   </bookViews>
   <sheets>
     <sheet name="ProteinExtraction" sheetId="2" r:id="rId1"/>
@@ -51,75 +51,75 @@
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{DF0658E4-C9C6-4331-8DF9-6C9B38382CFD}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The unique identifier of this template. It will be auto generated.
-Reply:
+Antwort:
     id=bc8a2518-98ae-4739-896e-863f97eb2b4b</t>
       </text>
     </comment>
     <comment ref="A2" authorId="1" shapeId="0" xr:uid="{5B542E70-26A0-4CF7-B662-1BBCA3332696}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the Swate template.</t>
       </text>
     </comment>
     <comment ref="A3" authorId="2" shapeId="0" xr:uid="{950034CC-8889-48B6-8EBB-EA4F8A0AE2A4}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The current version of this template in SemVer notation.</t>
       </text>
     </comment>
     <comment ref="A4" authorId="3" shapeId="0" xr:uid="{2BD761BB-270B-41A0-9568-A9DCE58D6CBF}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The description of this template. Use few sentences for succinctness.</t>
       </text>
     </comment>
     <comment ref="A5" authorId="4" shapeId="0" xr:uid="{0B12D9B1-3D9B-4114-A4D9-8EABDAD48BA5}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the template associated organisation. "DataPLANT" will trigger the "DataPLANT" batch of honor for the template.</t>
       </text>
     </comment>
     <comment ref="A6" authorId="5" shapeId="0" xr:uid="{BC36507B-35CB-4D7A-98D7-6EEF246AEE81}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the Swate annotation table in the workbook of the template's excel file.</t>
       </text>
     </comment>
     <comment ref="A7" authorId="6" shapeId="0" xr:uid="{80126BA2-B7A8-4CF2-A664-FF8F5294E228}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     A list of all ERs (endpoint repositories) targeted with this template. ERs are realized as Terms.</t>
       </text>
     </comment>
     <comment ref="A11" authorId="7" shapeId="0" xr:uid="{15BAC93F-EAA9-4B66-81D5-9746A192575A}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     A list of all tags associated with this template. Tags are realized as Terms.</t>
       </text>
     </comment>
     <comment ref="A15" authorId="8" shapeId="0" xr:uid="{D91EA22D-99F3-4AF1-857F-1A61FE6511CD}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The author(s) of this template.</t>
       </text>
     </comment>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="127">
   <si>
     <t>Source Name</t>
   </si>
@@ -457,15 +457,6 @@
     <t>RPTU - MBS</t>
   </si>
   <si>
-    <t>PRIDE</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/DPBO_1000098</t>
-  </si>
-  <si>
-    <t>DPBO</t>
-  </si>
-  <si>
     <t>Algae</t>
   </si>
   <si>
@@ -505,12 +496,6 @@
     <t>omaus@bio.uni-kl.de</t>
   </si>
   <si>
-    <t>extraction protocol</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/DPBO_1000171</t>
-  </si>
-  <si>
     <t>Template for protein extraction of the mass spectrometry facility at the department of Molecular Biotechnology &amp; Systems Biology at RPTU Kaiserslautern</t>
   </si>
   <si>
@@ -518,6 +503,12 @@
   </si>
   <si>
     <t>annotationTableTameFish514</t>
+  </si>
+  <si>
+    <t>extraction</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0302884</t>
   </si>
 </sst>
 </file>
@@ -528,7 +519,7 @@
     <numFmt numFmtId="164" formatCode="0.00\ &quot;gram per liter&quot;"/>
     <numFmt numFmtId="165" formatCode="0.00\ &quot;microliter&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -559,12 +550,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="8">
@@ -722,7 +707,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -750,7 +735,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -784,8 +768,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="16">
     <dxf>
@@ -884,9 +868,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -924,7 +908,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1030,7 +1014,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1172,7 +1156,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1246,54 +1230,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30D89962-93B3-4B58-9315-41DAA8F72075}">
-  <dimension ref="A1:CX24"/>
+  <dimension ref="A1:CX21"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="40" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.42578125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="40.140625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="33.42578125" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="40.140625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="44.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.44140625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="40.109375" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33.44140625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="40.109375" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="44.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="33" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="40" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="64.28515625" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="42.140625" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="35.140625" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="22.28515625" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="35.140625" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="22.28515625" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="64.33203125" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="42.109375" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="35.109375" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="22.33203125" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="35.109375" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="22.33203125" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="22" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="22.28515625" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="22.33203125" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="33" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="22.28515625" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.7109375" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="37.28515625" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="16.5703125" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="28.5703125" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="22.33203125" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.6640625" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="37.33203125" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="16.5546875" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="28.5546875" hidden="1" customWidth="1"/>
     <col min="34" max="34" width="0" hidden="1" customWidth="1"/>
-    <col min="35" max="36" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="0" hidden="1" customWidth="1"/>
-    <col min="38" max="38" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1352,7 +1336,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -1411,7 +1395,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>60</v>
       </c>
@@ -1470,7 +1454,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -1529,7 +1513,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>62</v>
       </c>
@@ -1588,7 +1572,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>63</v>
       </c>
@@ -1647,7 +1631,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>64</v>
       </c>
@@ -1706,7 +1690,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>65</v>
       </c>
@@ -1765,7 +1749,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>66</v>
       </c>
@@ -1824,7 +1808,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>67</v>
       </c>
@@ -1883,7 +1867,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>68</v>
       </c>
@@ -1942,7 +1926,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>69</v>
       </c>
@@ -2001,7 +1985,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>70</v>
       </c>
@@ -2060,7 +2044,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>71</v>
       </c>
@@ -2119,7 +2103,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>72</v>
       </c>
@@ -2178,7 +2162,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>73</v>
       </c>
@@ -2237,7 +2221,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>74</v>
       </c>
@@ -2296,77 +2280,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:102" ht="105" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:102" ht="72" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AL19" s="13"/>
-      <c r="AM19" s="13"/>
-      <c r="AN19" s="13"/>
-      <c r="AO19" s="13"/>
-      <c r="AP19" s="13"/>
-      <c r="AQ19" s="13"/>
-      <c r="AR19" s="13"/>
-      <c r="AS19" s="13"/>
-      <c r="AT19" s="13"/>
-      <c r="AU19" s="13"/>
-      <c r="AV19" s="13"/>
-      <c r="AW19" s="13"/>
-      <c r="AX19" s="13"/>
-      <c r="AY19" s="13"/>
-      <c r="AZ19" s="13"/>
-      <c r="BA19" s="13"/>
-      <c r="BB19" s="13"/>
-      <c r="BC19" s="13"/>
-      <c r="BD19" s="13"/>
-      <c r="BE19" s="13"/>
-      <c r="BF19" s="13"/>
-      <c r="BG19" s="13"/>
-      <c r="BH19" s="13"/>
-      <c r="BI19" s="13"/>
-      <c r="BJ19" s="13"/>
-      <c r="BK19" s="13"/>
-      <c r="BL19" s="13"/>
-      <c r="BM19" s="13"/>
-      <c r="BN19" s="13"/>
-      <c r="BO19" s="13"/>
-      <c r="BP19" s="13"/>
-      <c r="BQ19" s="13"/>
-      <c r="BR19" s="13"/>
-      <c r="BS19" s="13"/>
-      <c r="BT19" s="13"/>
-      <c r="BU19" s="13"/>
-      <c r="BV19" s="13"/>
-      <c r="BW19" s="13"/>
-      <c r="BX19" s="13"/>
-      <c r="BY19" s="13"/>
-      <c r="BZ19" s="13"/>
-      <c r="CA19" s="13"/>
-      <c r="CB19" s="13"/>
-      <c r="CC19" s="13"/>
-      <c r="CD19" s="13"/>
-      <c r="CE19" s="13"/>
-      <c r="CF19" s="13"/>
-      <c r="CG19" s="13"/>
-      <c r="CH19" s="13"/>
-      <c r="CI19" s="13"/>
-      <c r="CJ19" s="13"/>
-      <c r="CK19" s="13"/>
-      <c r="CL19" s="13"/>
-      <c r="CM19" s="13"/>
-      <c r="CN19" s="13"/>
-      <c r="CO19" s="13"/>
-      <c r="CP19" s="13"/>
-      <c r="CQ19" s="13"/>
-      <c r="CR19" s="13"/>
-      <c r="CS19" s="13"/>
-      <c r="CT19" s="13"/>
-      <c r="CU19" s="13"/>
-      <c r="CV19" s="13"/>
-      <c r="CW19" s="13"/>
-      <c r="CX19" s="13"/>
-    </row>
-    <row r="20" spans="1:102" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:102" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>49</v>
       </c>
@@ -2446,73 +2365,73 @@
       <c r="AI20"/>
       <c r="AJ20"/>
       <c r="AK20"/>
-      <c r="AL20" s="13"/>
-      <c r="AM20" s="13"/>
-      <c r="AN20" s="13"/>
-      <c r="AO20" s="13"/>
-      <c r="AP20" s="13"/>
-      <c r="AQ20" s="13"/>
-      <c r="AR20" s="13"/>
-      <c r="AS20" s="13"/>
-      <c r="AT20" s="13"/>
-      <c r="AU20" s="13"/>
-      <c r="AV20" s="13"/>
-      <c r="AW20" s="13"/>
-      <c r="AX20" s="13"/>
-      <c r="AY20" s="13"/>
-      <c r="AZ20" s="13"/>
-      <c r="BA20" s="13"/>
-      <c r="BB20" s="13"/>
-      <c r="BC20" s="13"/>
-      <c r="BD20" s="13"/>
-      <c r="BE20" s="13"/>
-      <c r="BF20" s="13"/>
-      <c r="BG20" s="13"/>
-      <c r="BH20" s="13"/>
-      <c r="BI20" s="13"/>
-      <c r="BJ20" s="13"/>
-      <c r="BK20" s="13"/>
-      <c r="BL20" s="13"/>
-      <c r="BM20" s="13"/>
-      <c r="BN20" s="13"/>
-      <c r="BO20" s="13"/>
-      <c r="BP20" s="13"/>
-      <c r="BQ20" s="13"/>
-      <c r="BR20" s="13"/>
-      <c r="BS20" s="13"/>
-      <c r="BT20" s="13"/>
-      <c r="BU20" s="13"/>
-      <c r="BV20" s="13"/>
-      <c r="BW20" s="13"/>
-      <c r="BX20" s="13"/>
-      <c r="BY20" s="13"/>
-      <c r="BZ20" s="13"/>
-      <c r="CA20" s="13"/>
-      <c r="CB20" s="13"/>
-      <c r="CC20" s="13"/>
-      <c r="CD20" s="13"/>
-      <c r="CE20" s="13"/>
-      <c r="CF20" s="13"/>
-      <c r="CG20" s="13"/>
-      <c r="CH20" s="13"/>
-      <c r="CI20" s="13"/>
-      <c r="CJ20" s="13"/>
-      <c r="CK20" s="13"/>
-      <c r="CL20" s="13"/>
-      <c r="CM20" s="13"/>
-      <c r="CN20" s="13"/>
-      <c r="CO20" s="13"/>
-      <c r="CP20" s="13"/>
-      <c r="CQ20" s="13"/>
-      <c r="CR20" s="13"/>
-      <c r="CS20" s="13"/>
-      <c r="CT20" s="13"/>
-      <c r="CU20" s="13"/>
-      <c r="CV20" s="13"/>
-      <c r="CW20" s="13"/>
-      <c r="CX20" s="13"/>
-    </row>
-    <row r="21" spans="1:102" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="AL20"/>
+      <c r="AM20"/>
+      <c r="AN20"/>
+      <c r="AO20"/>
+      <c r="AP20"/>
+      <c r="AQ20"/>
+      <c r="AR20"/>
+      <c r="AS20"/>
+      <c r="AT20"/>
+      <c r="AU20"/>
+      <c r="AV20"/>
+      <c r="AW20"/>
+      <c r="AX20"/>
+      <c r="AY20"/>
+      <c r="AZ20"/>
+      <c r="BA20"/>
+      <c r="BB20"/>
+      <c r="BC20"/>
+      <c r="BD20"/>
+      <c r="BE20"/>
+      <c r="BF20"/>
+      <c r="BG20"/>
+      <c r="BH20"/>
+      <c r="BI20"/>
+      <c r="BJ20"/>
+      <c r="BK20"/>
+      <c r="BL20"/>
+      <c r="BM20"/>
+      <c r="BN20"/>
+      <c r="BO20"/>
+      <c r="BP20"/>
+      <c r="BQ20"/>
+      <c r="BR20"/>
+      <c r="BS20"/>
+      <c r="BT20"/>
+      <c r="BU20"/>
+      <c r="BV20"/>
+      <c r="BW20"/>
+      <c r="BX20"/>
+      <c r="BY20"/>
+      <c r="BZ20"/>
+      <c r="CA20"/>
+      <c r="CB20"/>
+      <c r="CC20"/>
+      <c r="CD20"/>
+      <c r="CE20"/>
+      <c r="CF20"/>
+      <c r="CG20"/>
+      <c r="CH20"/>
+      <c r="CI20"/>
+      <c r="CJ20"/>
+      <c r="CK20"/>
+      <c r="CL20"/>
+      <c r="CM20"/>
+      <c r="CN20"/>
+      <c r="CO20"/>
+      <c r="CP20"/>
+      <c r="CQ20"/>
+      <c r="CR20"/>
+      <c r="CS20"/>
+      <c r="CT20"/>
+      <c r="CU20"/>
+      <c r="CV20"/>
+      <c r="CW20"/>
+      <c r="CX20"/>
+    </row>
+    <row r="21" spans="1:102" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>56</v>
       </c>
@@ -2554,272 +2473,71 @@
       <c r="AI21"/>
       <c r="AJ21"/>
       <c r="AK21"/>
-      <c r="AL21" s="13"/>
-      <c r="AM21" s="13"/>
-      <c r="AN21" s="13"/>
-      <c r="AO21" s="13"/>
-      <c r="AP21" s="13"/>
-      <c r="AQ21" s="13"/>
-      <c r="AR21" s="13"/>
-      <c r="AS21" s="13"/>
-      <c r="AT21" s="13"/>
-      <c r="AU21" s="13"/>
-      <c r="AV21" s="13"/>
-      <c r="AW21" s="13"/>
-      <c r="AX21" s="13"/>
-      <c r="AY21" s="13"/>
-      <c r="AZ21" s="13"/>
-      <c r="BA21" s="13"/>
-      <c r="BB21" s="13"/>
-      <c r="BC21" s="13"/>
-      <c r="BD21" s="13"/>
-      <c r="BE21" s="13"/>
-      <c r="BF21" s="13"/>
-      <c r="BG21" s="13"/>
-      <c r="BH21" s="13"/>
-      <c r="BI21" s="13"/>
-      <c r="BJ21" s="13"/>
-      <c r="BK21" s="13"/>
-      <c r="BL21" s="13"/>
-      <c r="BM21" s="13"/>
-      <c r="BN21" s="13"/>
-      <c r="BO21" s="13"/>
-      <c r="BP21" s="13"/>
-      <c r="BQ21" s="13"/>
-      <c r="BR21" s="13"/>
-      <c r="BS21" s="13"/>
-      <c r="BT21" s="13"/>
-      <c r="BU21" s="13"/>
-      <c r="BV21" s="13"/>
-      <c r="BW21" s="13"/>
-      <c r="BX21" s="13"/>
-      <c r="BY21" s="13"/>
-      <c r="BZ21" s="13"/>
-      <c r="CA21" s="13"/>
-      <c r="CB21" s="13"/>
-      <c r="CC21" s="13"/>
-      <c r="CD21" s="13"/>
-      <c r="CE21" s="13"/>
-      <c r="CF21" s="13"/>
-      <c r="CG21" s="13"/>
-      <c r="CH21" s="13"/>
-      <c r="CI21" s="13"/>
-      <c r="CJ21" s="13"/>
-      <c r="CK21" s="13"/>
-      <c r="CL21" s="13"/>
-      <c r="CM21" s="13"/>
-      <c r="CN21" s="13"/>
-      <c r="CO21" s="13"/>
-      <c r="CP21" s="13"/>
-      <c r="CQ21" s="13"/>
-      <c r="CR21" s="13"/>
-      <c r="CS21" s="13"/>
-      <c r="CT21" s="13"/>
-      <c r="CU21" s="13"/>
-      <c r="CV21" s="13"/>
-      <c r="CW21" s="13"/>
-      <c r="CX21" s="13"/>
-    </row>
-    <row r="22" spans="1:102" x14ac:dyDescent="0.25">
-      <c r="AL22" s="13"/>
-      <c r="AM22" s="13"/>
-      <c r="AN22" s="13"/>
-      <c r="AO22" s="13"/>
-      <c r="AP22" s="13"/>
-      <c r="AQ22" s="13"/>
-      <c r="AR22" s="13"/>
-      <c r="AS22" s="13"/>
-      <c r="AT22" s="13"/>
-      <c r="AU22" s="13"/>
-      <c r="AV22" s="13"/>
-      <c r="AW22" s="13"/>
-      <c r="AX22" s="13"/>
-      <c r="AY22" s="13"/>
-      <c r="AZ22" s="13"/>
-      <c r="BA22" s="13"/>
-      <c r="BB22" s="13"/>
-      <c r="BC22" s="13"/>
-      <c r="BD22" s="13"/>
-      <c r="BE22" s="13"/>
-      <c r="BF22" s="13"/>
-      <c r="BG22" s="13"/>
-      <c r="BH22" s="13"/>
-      <c r="BI22" s="13"/>
-      <c r="BJ22" s="13"/>
-      <c r="BK22" s="13"/>
-      <c r="BL22" s="13"/>
-      <c r="BM22" s="13"/>
-      <c r="BN22" s="13"/>
-      <c r="BO22" s="13"/>
-      <c r="BP22" s="13"/>
-      <c r="BQ22" s="13"/>
-      <c r="BR22" s="13"/>
-      <c r="BS22" s="13"/>
-      <c r="BT22" s="13"/>
-      <c r="BU22" s="13"/>
-      <c r="BV22" s="13"/>
-      <c r="BW22" s="13"/>
-      <c r="BX22" s="13"/>
-      <c r="BY22" s="13"/>
-      <c r="BZ22" s="13"/>
-      <c r="CA22" s="13"/>
-      <c r="CB22" s="13"/>
-      <c r="CC22" s="13"/>
-      <c r="CD22" s="13"/>
-      <c r="CE22" s="13"/>
-      <c r="CF22" s="13"/>
-      <c r="CG22" s="13"/>
-      <c r="CH22" s="13"/>
-      <c r="CI22" s="13"/>
-      <c r="CJ22" s="13"/>
-      <c r="CK22" s="13"/>
-      <c r="CL22" s="13"/>
-      <c r="CM22" s="13"/>
-      <c r="CN22" s="13"/>
-      <c r="CO22" s="13"/>
-      <c r="CP22" s="13"/>
-      <c r="CQ22" s="13"/>
-      <c r="CR22" s="13"/>
-      <c r="CS22" s="13"/>
-      <c r="CT22" s="13"/>
-      <c r="CU22" s="13"/>
-      <c r="CV22" s="13"/>
-      <c r="CW22" s="13"/>
-      <c r="CX22" s="13"/>
-    </row>
-    <row r="23" spans="1:102" x14ac:dyDescent="0.25">
-      <c r="AL23" s="13"/>
-      <c r="AM23" s="13"/>
-      <c r="AN23" s="13"/>
-      <c r="AO23" s="13"/>
-      <c r="AP23" s="13"/>
-      <c r="AQ23" s="13"/>
-      <c r="AR23" s="13"/>
-      <c r="AS23" s="13"/>
-      <c r="AT23" s="13"/>
-      <c r="AU23" s="13"/>
-      <c r="AV23" s="13"/>
-      <c r="AW23" s="13"/>
-      <c r="AX23" s="13"/>
-      <c r="AY23" s="13"/>
-      <c r="AZ23" s="13"/>
-      <c r="BA23" s="13"/>
-      <c r="BB23" s="13"/>
-      <c r="BC23" s="13"/>
-      <c r="BD23" s="13"/>
-      <c r="BE23" s="13"/>
-      <c r="BF23" s="13"/>
-      <c r="BG23" s="13"/>
-      <c r="BH23" s="13"/>
-      <c r="BI23" s="13"/>
-      <c r="BJ23" s="13"/>
-      <c r="BK23" s="13"/>
-      <c r="BL23" s="13"/>
-      <c r="BM23" s="13"/>
-      <c r="BN23" s="13"/>
-      <c r="BO23" s="13"/>
-      <c r="BP23" s="13"/>
-      <c r="BQ23" s="13"/>
-      <c r="BR23" s="13"/>
-      <c r="BS23" s="13"/>
-      <c r="BT23" s="13"/>
-      <c r="BU23" s="13"/>
-      <c r="BV23" s="13"/>
-      <c r="BW23" s="13"/>
-      <c r="BX23" s="13"/>
-      <c r="BY23" s="13"/>
-      <c r="BZ23" s="13"/>
-      <c r="CA23" s="13"/>
-      <c r="CB23" s="13"/>
-      <c r="CC23" s="13"/>
-      <c r="CD23" s="13"/>
-      <c r="CE23" s="13"/>
-      <c r="CF23" s="13"/>
-      <c r="CG23" s="13"/>
-      <c r="CH23" s="13"/>
-      <c r="CI23" s="13"/>
-      <c r="CJ23" s="13"/>
-      <c r="CK23" s="13"/>
-      <c r="CL23" s="13"/>
-      <c r="CM23" s="13"/>
-      <c r="CN23" s="13"/>
-      <c r="CO23" s="13"/>
-      <c r="CP23" s="13"/>
-      <c r="CQ23" s="13"/>
-      <c r="CR23" s="13"/>
-      <c r="CS23" s="13"/>
-      <c r="CT23" s="13"/>
-      <c r="CU23" s="13"/>
-      <c r="CV23" s="13"/>
-      <c r="CW23" s="13"/>
-      <c r="CX23" s="13"/>
-    </row>
-    <row r="24" spans="1:102" x14ac:dyDescent="0.25">
-      <c r="AL24" s="13"/>
-      <c r="AM24" s="13"/>
-      <c r="AN24" s="13"/>
-      <c r="AO24" s="13"/>
-      <c r="AP24" s="13"/>
-      <c r="AQ24" s="13"/>
-      <c r="AR24" s="13"/>
-      <c r="AS24" s="13"/>
-      <c r="AT24" s="13"/>
-      <c r="AU24" s="13"/>
-      <c r="AV24" s="13"/>
-      <c r="AW24" s="13"/>
-      <c r="AX24" s="13"/>
-      <c r="AY24" s="13"/>
-      <c r="AZ24" s="13"/>
-      <c r="BA24" s="13"/>
-      <c r="BB24" s="13"/>
-      <c r="BC24" s="13"/>
-      <c r="BD24" s="13"/>
-      <c r="BE24" s="13"/>
-      <c r="BF24" s="13"/>
-      <c r="BG24" s="13"/>
-      <c r="BH24" s="13"/>
-      <c r="BI24" s="13"/>
-      <c r="BJ24" s="13"/>
-      <c r="BK24" s="13"/>
-      <c r="BL24" s="13"/>
-      <c r="BM24" s="13"/>
-      <c r="BN24" s="13"/>
-      <c r="BO24" s="13"/>
-      <c r="BP24" s="13"/>
-      <c r="BQ24" s="13"/>
-      <c r="BR24" s="13"/>
-      <c r="BS24" s="13"/>
-      <c r="BT24" s="13"/>
-      <c r="BU24" s="13"/>
-      <c r="BV24" s="13"/>
-      <c r="BW24" s="13"/>
-      <c r="BX24" s="13"/>
-      <c r="BY24" s="13"/>
-      <c r="BZ24" s="13"/>
-      <c r="CA24" s="13"/>
-      <c r="CB24" s="13"/>
-      <c r="CC24" s="13"/>
-      <c r="CD24" s="13"/>
-      <c r="CE24" s="13"/>
-      <c r="CF24" s="13"/>
-      <c r="CG24" s="13"/>
-      <c r="CH24" s="13"/>
-      <c r="CI24" s="13"/>
-      <c r="CJ24" s="13"/>
-      <c r="CK24" s="13"/>
-      <c r="CL24" s="13"/>
-      <c r="CM24" s="13"/>
-      <c r="CN24" s="13"/>
-      <c r="CO24" s="13"/>
-      <c r="CP24" s="13"/>
-      <c r="CQ24" s="13"/>
-      <c r="CR24" s="13"/>
-      <c r="CS24" s="13"/>
-      <c r="CT24" s="13"/>
-      <c r="CU24" s="13"/>
-      <c r="CV24" s="13"/>
-      <c r="CW24" s="13"/>
-      <c r="CX24" s="13"/>
+      <c r="AL21"/>
+      <c r="AM21"/>
+      <c r="AN21"/>
+      <c r="AO21"/>
+      <c r="AP21"/>
+      <c r="AQ21"/>
+      <c r="AR21"/>
+      <c r="AS21"/>
+      <c r="AT21"/>
+      <c r="AU21"/>
+      <c r="AV21"/>
+      <c r="AW21"/>
+      <c r="AX21"/>
+      <c r="AY21"/>
+      <c r="AZ21"/>
+      <c r="BA21"/>
+      <c r="BB21"/>
+      <c r="BC21"/>
+      <c r="BD21"/>
+      <c r="BE21"/>
+      <c r="BF21"/>
+      <c r="BG21"/>
+      <c r="BH21"/>
+      <c r="BI21"/>
+      <c r="BJ21"/>
+      <c r="BK21"/>
+      <c r="BL21"/>
+      <c r="BM21"/>
+      <c r="BN21"/>
+      <c r="BO21"/>
+      <c r="BP21"/>
+      <c r="BQ21"/>
+      <c r="BR21"/>
+      <c r="BS21"/>
+      <c r="BT21"/>
+      <c r="BU21"/>
+      <c r="BV21"/>
+      <c r="BW21"/>
+      <c r="BX21"/>
+      <c r="BY21"/>
+      <c r="BZ21"/>
+      <c r="CA21"/>
+      <c r="CB21"/>
+      <c r="CC21"/>
+      <c r="CD21"/>
+      <c r="CE21"/>
+      <c r="CF21"/>
+      <c r="CG21"/>
+      <c r="CH21"/>
+      <c r="CI21"/>
+      <c r="CJ21"/>
+      <c r="CK21"/>
+      <c r="CL21"/>
+      <c r="CM21"/>
+      <c r="CN21"/>
+      <c r="CO21"/>
+      <c r="CP21"/>
+      <c r="CQ21"/>
+      <c r="CR21"/>
+      <c r="CS21"/>
+      <c r="CT21"/>
+      <c r="CU21"/>
+      <c r="CV21"/>
+      <c r="CW21"/>
+      <c r="CX21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2834,242 +2552,233 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.140625" customWidth="1"/>
+    <col min="1" max="1" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="B2" s="18" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="B4" s="18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="B6" s="18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="20"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="B7" s="19"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="20"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="18"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="18"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="19"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="20" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="B11" s="20"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>112</v>
       </c>
       <c r="C12" t="s">
         <v>125</v>
       </c>
       <c r="D12" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="19" t="s">
-        <v>114</v>
+      <c r="B13" s="18" t="s">
+        <v>111</v>
       </c>
       <c r="C13" t="s">
         <v>126</v>
       </c>
       <c r="D13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" s="19"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" t="s">
-        <v>111</v>
-      </c>
-      <c r="D14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="B15" s="20"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="B16" s="21" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>117</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="B17" s="19" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" s="18"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C19" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D19" s="23" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="B18" s="19"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="B20" s="19"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
+      <c r="B20" s="18"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="B21" s="19"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
+      <c r="B21" s="18"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="B22" s="19"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
+      <c r="B22" s="18"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="B23" s="19"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
+      <c r="B23" s="18"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="B24" s="19"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
+      <c r="B24" s="18"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="B25" s="19"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
+      <c r="B25" s="18"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="B26" s="19"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="s">
+      <c r="B26" s="18"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="B27" s="22"/>
+      <c r="B27" s="21"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/templates/community/RPTU/RPTU_FS_ProteinExtraction.xlsx
+++ b/templates/community/RPTU/RPTU_FS_ProteinExtraction.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\community\RPTU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AFDED1F-B783-4F92-AC82-BE607E23362D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B51DBE-5112-4F2E-8784-3B795F522982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{53E4735C-14F8-482F-9DAC-5F38B5221EAD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{53E4735C-14F8-482F-9DAC-5F38B5221EAD}"/>
   </bookViews>
   <sheets>
     <sheet name="ProteinExtraction" sheetId="2" r:id="rId1"/>
@@ -508,7 +508,7 @@
     <t>extraction</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/OBI_0302884</t>
+    <t>OBI:0302884</t>
   </si>
 </sst>
 </file>
@@ -2552,7 +2552,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/templates/community/RPTU/RPTU_FS_ProteinExtraction.xlsx
+++ b/templates/community/RPTU/RPTU_FS_ProteinExtraction.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\community\RPTU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B51DBE-5112-4F2E-8784-3B795F522982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6A5706-9BC0-403C-96CD-4664A63A76A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{53E4735C-14F8-482F-9DAC-5F38B5221EAD}"/>
   </bookViews>
   <sheets>
     <sheet name="ProteinExtraction" sheetId="2" r:id="rId1"/>
-    <sheet name="SwateTemplateMetadata" sheetId="3" r:id="rId2"/>
+    <sheet name="isa_template" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
